--- a/q1 data.xlsx
+++ b/q1 data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>num Clicks</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -94,13 +94,20 @@
   </si>
   <si>
     <t>3476</t>
+  </si>
+  <si>
+    <t>SUM([click])/COUNT([click])</t>
+  </si>
+  <si>
+    <t>CTR in Tableau can be calculate with :</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +138,11 @@
       <color rgb="FF333333"/>
       <name val="Tableau Medium"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +186,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -502,9 +517,11 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -527,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>2697738</v>
       </c>
@@ -553,7 +570,7 @@
         <v>106.43866224188791</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -569,8 +586,14 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -587,7 +610,7 @@
         <v>37231239</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -604,7 +627,7 @@
         <v>13649026</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -621,7 +644,7 @@
         <v>10789152</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -638,7 +661,7 @@
         <v>20625766</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -655,7 +678,7 @@
         <v>3413227</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -672,7 +695,7 @@
         <v>28145288</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -689,7 +712,7 @@
         <v>38341028</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -706,7 +729,7 @@
         <v>36820111</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
